--- a/Documents/FSE Project Requirements.xlsx
+++ b/Documents/FSE Project Requirements.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27514"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B3B090-8E95-4397-9D0C-ED372BD7F8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39070DFE-DD58-4859-9638-203B3638EA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
   <si>
     <t>F/NF Requirement</t>
   </si>
@@ -207,7 +207,7 @@
     <t>SREQ007</t>
   </si>
   <si>
-    <t>All of the words in the potential wordlist will 5 letters</t>
+    <t>All of the words in the potential wordlist will be 5 letters</t>
   </si>
   <si>
     <t>SREQ008</t>
@@ -219,13 +219,13 @@
     <t>SREQ009</t>
   </si>
   <si>
-    <t>The website will randomly select words for a game from its wordbank</t>
+    <t>The website will randomly select words for a game from its word bank</t>
   </si>
   <si>
     <t>UREQ011</t>
   </si>
   <si>
-    <t>The correct words will be reversed, horizontal, vertical, or diagonal</t>
+    <t>The words to find will be reversed, horizontal, vertical, or diagonal</t>
   </si>
   <si>
     <t>WordBank reverse(String word), diagonal(String word), vertical(String word), horizontal(String Word)</t>
@@ -387,13 +387,13 @@
     <t>SREQ024</t>
   </si>
   <si>
-    <t>The grid should be generate in less than one second</t>
+    <t>The grid will be generated in less than one second</t>
   </si>
   <si>
     <t>UREQ025</t>
   </si>
   <si>
-    <t>There will be a button to show the stats of the grid</t>
+    <t>There will be a button to show the stats of the grid generation</t>
   </si>
   <si>
     <t>WordBank statistics()</t>
@@ -480,14 +480,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -811,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -826,55 +822,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
@@ -882,37 +878,37 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
@@ -920,37 +916,37 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
@@ -958,35 +954,35 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
@@ -994,37 +990,37 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
@@ -1032,70 +1028,70 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
@@ -1103,37 +1099,37 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F17" t="s">
@@ -1141,39 +1137,39 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F19" t="s">
@@ -1181,37 +1177,37 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F21" t="s">
@@ -1219,39 +1215,39 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F23" t="s">
@@ -1259,37 +1255,37 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
@@ -1297,37 +1293,37 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F27" t="s">
@@ -1335,33 +1331,33 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F29" t="s">
@@ -1369,37 +1365,37 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
@@ -1407,37 +1403,37 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F33" t="s">
@@ -1445,37 +1441,37 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F35" t="s">
@@ -1483,74 +1479,74 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F39" t="s">
@@ -1573,24 +1569,24 @@
       <c r="E40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F41" t="s">
@@ -1613,17 +1609,21 @@
       <c r="E42" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
         <v>120</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="F43" t="s">
         <v>121</v>

--- a/Documents/FSE Project Requirements.xlsx
+++ b/Documents/FSE Project Requirements.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39070DFE-DD58-4859-9638-203B3638EA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C59009-253D-4B7D-B37E-38811D605C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="121">
   <si>
     <t>F/NF Requirement</t>
   </si>
@@ -78,7 +78,7 @@
     <t>The server will store previous users' handles/nicknames</t>
   </si>
   <si>
-    <t>Players storeName(String nickname)</t>
+    <t>UserAuthentication newUser(String nickname)</t>
   </si>
   <si>
     <t>UREQ003</t>
@@ -201,7 +201,7 @@
     <t>Database Item</t>
   </si>
   <si>
-    <t>WordBank selectWord()</t>
+    <t>WordBank selectWords()</t>
   </si>
   <si>
     <t>SREQ007</t>
@@ -225,18 +225,21 @@
     <t>UREQ011</t>
   </si>
   <si>
-    <t>The words to find will be reversed, horizontal, vertical, or diagonal</t>
+    <t>The words to find will be horizontal, vertical down, vertical up, diagonal down, or diagonal up</t>
+  </si>
+  <si>
+    <t>WordBank horizontal(char[], String, int, int), verticalDown(char[], String, int, int), verticalUp(char[], String, int, int), diagonalDown(char[], String, int, int), DiagonalUp(char[], String, int, int)</t>
+  </si>
+  <si>
+    <t>SREQ010</t>
+  </si>
+  <si>
+    <t>The words will not be a combination of reversed, horizontal, vertical, and diagonal (the words will only be one)</t>
   </si>
   <si>
     <t>WordBank reverse(String word), diagonal(String word), vertical(String word), horizontal(String Word)</t>
   </si>
   <si>
-    <t>SREQ010</t>
-  </si>
-  <si>
-    <t>The words will not be a combination of reversed, horizontal, vertical, and diagonal (the words will only be one)</t>
-  </si>
-  <si>
     <t>SREQ011</t>
   </si>
   <si>
@@ -270,7 +273,7 @@
     <t>The entire word will change to the user's color once they select the first and last letter of the word with their mouse</t>
   </si>
   <si>
-    <t>GameSession wordColor()</t>
+    <t>GameSession getWordPositions()</t>
   </si>
   <si>
     <t>SREQ013</t>
@@ -279,7 +282,7 @@
     <t>Every player will be assigned a unique color at the beginning of the game</t>
   </si>
   <si>
-    <t>GameSession wordColor(), update UserEvent U)</t>
+    <t>Index.html highlightButton(row, column, idx)</t>
   </si>
   <si>
     <t>UREQ014</t>
@@ -315,18 +318,12 @@
     <t>The system will highlight the start letter of one of the remaining words if a start letter hasn't been found within 30 seconds</t>
   </si>
   <si>
-    <t>GameSessionhighlightWord()</t>
-  </si>
-  <si>
     <t>SREQ015</t>
   </si>
   <si>
     <t>The system's color for highlighting will be unique to the system</t>
   </si>
   <si>
-    <t>Players selectPlayerColor(String nickname)</t>
-  </si>
-  <si>
     <t>UREQ017</t>
   </si>
   <si>
@@ -339,7 +336,7 @@
     <t>The game will end once every word has been "won" by a player</t>
   </si>
   <si>
-    <t>GameSession gameOver(int)</t>
+    <t>GameSession charSelected(int, int)</t>
   </si>
   <si>
     <t>SREQ016</t>
@@ -375,7 +372,7 @@
     <t>UREQ022</t>
   </si>
   <si>
-    <t>Each possible orientation of words will be at least 20% of the total word count</t>
+    <t>Each possible orientation of words will be at least 15% of the total word count</t>
   </si>
   <si>
     <t>UREQ023</t>
@@ -807,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,7 +815,7 @@
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="134.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="168.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1231,7 +1228,7 @@
         <v>63</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1239,19 +1236,19 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1259,19 +1256,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1279,17 +1276,17 @@
         <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1297,17 +1294,17 @@
         <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1315,19 +1312,19 @@
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1335,14 +1332,14 @@
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -1351,17 +1348,17 @@
         <v>6</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1369,19 +1366,19 @@
         <v>6</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1389,17 +1386,17 @@
         <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1410,16 +1407,16 @@
         <v>95</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1427,17 +1424,17 @@
         <v>6</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1445,17 +1442,17 @@
         <v>6</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1463,19 +1460,19 @@
         <v>6</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1483,19 +1480,19 @@
         <v>6</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1503,14 +1500,14 @@
         <v>41</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1518,19 +1515,19 @@
         <v>6</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1538,19 +1535,19 @@
         <v>6</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1558,19 +1555,19 @@
         <v>6</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1578,19 +1575,19 @@
         <v>6</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1598,13 +1595,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>63</v>
@@ -1616,17 +1613,17 @@
         <v>6</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/FSE Project Requirements.xlsx
+++ b/Documents/FSE Project Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9C59009-253D-4B7D-B37E-38811D605C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD44987-0CDE-46FD-8CBF-95A1D57BFCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,7 +805,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documents/FSE Project Requirements.xlsx
+++ b/Documents/FSE Project Requirements.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD44987-0CDE-46FD-8CBF-95A1D57BFCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9859E78-CC4A-49D9-9592-2C99C8897B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="124">
   <si>
     <t>F/NF Requirement</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>WordBank statistics()</t>
+  </si>
+  <si>
+    <t>UREQ026</t>
+  </si>
+  <si>
+    <t>There will be 10 sets of 'T'-shaped words where the first letter of the vertical word overlaps with the horizontal word</t>
+  </si>
+  <si>
+    <t>WordBank TWords()</t>
   </si>
 </sst>
 </file>
@@ -802,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1626,6 +1635,24 @@
         <v>120</v>
       </c>
     </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/FSE Project Requirements.xlsx
+++ b/Documents/FSE Project Requirements.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9859E78-CC4A-49D9-9592-2C99C8897B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{777CB6B7-4F6B-464F-9BEE-2DD487002123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Leaderboard Item</t>
   </si>
   <si>
-    <t>Leaderboard updateLeaderboard(String nickname)</t>
+    <t>Leaderboard updateScore(String nickname)</t>
   </si>
   <si>
     <t>SREQ002</t>
@@ -814,7 +814,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:F44"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documents/FSE Project Requirements.xlsx
+++ b/Documents/FSE Project Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{777CB6B7-4F6B-464F-9BEE-2DD487002123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B170B30-04FF-44E6-98C5-22779ED69CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="137">
   <si>
     <t>F/NF Requirement</t>
   </si>
@@ -51,6 +51,9 @@
     <t>Implemented By</t>
   </si>
   <si>
+    <t>Tested By</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
     <t>UserAuthentication login(String nickname)</t>
   </si>
   <si>
+    <t>Cody's Unique Username Test.xlsx and UserAuthenticationTest.java</t>
+  </si>
+  <si>
     <t>UREQ002</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
     <t>UserAuthentication newUser(String nickname)</t>
   </si>
   <si>
+    <t>Cody's Unique Username Test.xlsx</t>
+  </si>
+  <si>
     <t>UREQ003</t>
   </si>
   <si>
@@ -93,6 +102,9 @@
     <t>Leaderboard updateScore(String nickname)</t>
   </si>
   <si>
+    <t>Will's User Story for Leaderboard.xlsx and LeaderboardTest.java</t>
+  </si>
+  <si>
     <t>SREQ002</t>
   </si>
   <si>
@@ -114,6 +126,9 @@
     <t>Lobby waitingPlayers()</t>
   </si>
   <si>
+    <t>Grace's User Story for Display Functions.xlsx and LobbyTest.java</t>
+  </si>
+  <si>
     <t>UREQ005</t>
   </si>
   <si>
@@ -132,6 +147,9 @@
     <t>Lobby messagePlayer(String nickname, String message)</t>
   </si>
   <si>
+    <t>David's User Story for Chat.xlsx and LobbyTest.java</t>
+  </si>
+  <si>
     <t>UREQ007</t>
   </si>
   <si>
@@ -156,6 +174,9 @@
     <t>Lobby joinMatch(String nickname)</t>
   </si>
   <si>
+    <t>Will's User Story for Game Functions.xlsx</t>
+  </si>
+  <si>
     <t>NF</t>
   </si>
   <si>
@@ -168,12 +189,18 @@
     <t>Product Description</t>
   </si>
   <si>
+    <t>Will's User Story for Game Functions.xlsx and GameSessionTest.java</t>
+  </si>
+  <si>
     <t>SREQ005</t>
   </si>
   <si>
     <t>The server shall support up to 5 concurrent games at any given time</t>
   </si>
   <si>
+    <t>WholeGameTest.java</t>
+  </si>
+  <si>
     <t>UREQ009</t>
   </si>
   <si>
@@ -183,6 +210,9 @@
     <t>WordBank generateGrid()</t>
   </si>
   <si>
+    <t>WordBankTest.java</t>
+  </si>
+  <si>
     <t>SREQ006</t>
   </si>
   <si>
@@ -312,12 +342,18 @@
     <t>GameSession update(UserEvent U)</t>
   </si>
   <si>
+    <t>Will's User Story for Game Functions.xlsx and Will's User Story for Leaderboard.xlsx</t>
+  </si>
+  <si>
     <t>UREQ016</t>
   </si>
   <si>
     <t>The system will highlight the start letter of one of the remaining words if a start letter hasn't been found within 30 seconds</t>
   </si>
   <si>
+    <t>-------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
     <t>SREQ015</t>
   </si>
   <si>
@@ -337,6 +373,9 @@
   </si>
   <si>
     <t>GameSession charSelected(int, int)</t>
+  </si>
+  <si>
+    <t>GameSessionTest.java</t>
   </si>
   <si>
     <t>SREQ016</t>
@@ -409,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +467,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -486,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -497,6 +550,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,9 +885,10 @@
     <col min="4" max="4" width="134.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="168.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -843,814 +904,948 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="G31" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G32" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>123</v>
+        <v>51</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
